--- a/校园管理系统/1.xlsx
+++ b/校园管理系统/1.xlsx
@@ -1,58 +1,420 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView windowWidth="22188" windowHeight="9767"/>
+  </bookViews>
   <sheets>
     <sheet name="学生成绩" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>学号</t>
+  </si>
+  <si>
+    <t>语文</t>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>物理</t>
+  </si>
+  <si>
+    <t>化学</t>
+  </si>
+  <si>
+    <t>生物</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -60,18 +422,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -391,52 +1047,50 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.8333333333333" customWidth="1"/>
+    <col min="2" max="7" width="8.83333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>学号</v>
-      </c>
-      <c r="B1" t="str">
-        <v>语文</v>
-      </c>
-      <c r="C1" t="str">
-        <v>数学</v>
-      </c>
-      <c r="D1" t="str">
-        <v>英语</v>
-      </c>
-      <c r="E1" t="str">
-        <v>物理</v>
-      </c>
-      <c r="F1" t="str">
-        <v>化学</v>
-      </c>
-      <c r="G1" t="str">
-        <v>生物</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
-        <v>10001</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>85</v>
@@ -457,9 +1111,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7">
       <c r="A3">
-        <v>10002</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>92</v>
@@ -480,9 +1134,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7">
       <c r="A4">
-        <v>10003</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>78</v>
@@ -503,9 +1157,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7">
       <c r="A5">
-        <v>10004</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>89</v>
@@ -526,9 +1180,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7">
       <c r="A6">
-        <v>10005</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>95</v>
@@ -549,9 +1203,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7">
       <c r="A7">
-        <v>10006</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>77</v>
@@ -572,9 +1226,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7">
       <c r="A8">
-        <v>10007</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>88</v>
@@ -595,9 +1249,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7">
       <c r="A9">
-        <v>10008</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>91</v>
@@ -618,9 +1272,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7">
       <c r="A10">
-        <v>10009</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>83</v>
@@ -641,9 +1295,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7">
       <c r="A11">
-        <v>10010</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>94</v>
@@ -664,9 +1318,910 @@
         <v>93</v>
       </c>
     </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>82</v>
+      </c>
+      <c r="C12">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>86</v>
+      </c>
+      <c r="D12">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>79</v>
+      </c>
+      <c r="E12">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>60</v>
+      </c>
+      <c r="F12">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>99</v>
+      </c>
+      <c r="G12">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f ca="1" t="shared" ref="B13:B22" si="0">RANDBETWEEN(60,100)</f>
+        <v>96</v>
+      </c>
+      <c r="C13">
+        <f ca="1" t="shared" ref="C13:C22" si="1">RANDBETWEEN(60,100)</f>
+        <v>91</v>
+      </c>
+      <c r="D13">
+        <f ca="1" t="shared" ref="D13:D22" si="2">RANDBETWEEN(60,100)</f>
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <f ca="1" t="shared" ref="E13:E22" si="3">RANDBETWEEN(60,100)</f>
+        <v>74</v>
+      </c>
+      <c r="F13">
+        <f ca="1" t="shared" ref="F13:F22" si="4">RANDBETWEEN(60,100)</f>
+        <v>65</v>
+      </c>
+      <c r="G13">
+        <f ca="1" t="shared" ref="G13:G22" si="5">RANDBETWEEN(60,100)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f ca="1" t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="C14">
+        <f ca="1" t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="D14">
+        <f ca="1" t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="E14">
+        <f ca="1" t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="F14">
+        <f ca="1" t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="G14">
+        <f ca="1" t="shared" si="5"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f ca="1" t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="C15">
+        <f ca="1" t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="D15">
+        <f ca="1" t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="E15">
+        <f ca="1" t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="F15">
+        <f ca="1" t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="G15">
+        <f ca="1" t="shared" si="5"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f ca="1" t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="C16">
+        <f ca="1" t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="D16">
+        <f ca="1" t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="E16">
+        <f ca="1" t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="F16">
+        <f ca="1" t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="G16">
+        <f ca="1" t="shared" si="5"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f ca="1" t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="C17">
+        <f ca="1" t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="D17">
+        <f ca="1" t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="E17">
+        <f ca="1" t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="F17">
+        <f ca="1" t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="G17">
+        <f ca="1" t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f ca="1" t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="C18">
+        <f ca="1" t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="D18">
+        <f ca="1" t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="E18">
+        <f ca="1" t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="F18">
+        <f ca="1" t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="G18">
+        <f ca="1" t="shared" si="5"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f ca="1" t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="C19">
+        <f ca="1" t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="D19">
+        <f ca="1" t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="E19">
+        <f ca="1" t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="F19">
+        <f ca="1" t="shared" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="G19">
+        <f ca="1" t="shared" si="5"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f ca="1" t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="C20">
+        <f ca="1" t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="D20">
+        <f ca="1" t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="E20">
+        <f ca="1" t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="F20">
+        <f ca="1" t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="G20">
+        <f ca="1" t="shared" si="5"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f ca="1" t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <f ca="1" t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="D21">
+        <f ca="1" t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="E21">
+        <f ca="1" t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="F21">
+        <f ca="1" t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="G21">
+        <f ca="1" t="shared" si="5"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f ca="1" t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="C22">
+        <f ca="1" t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="D22">
+        <f ca="1" t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="E22">
+        <f ca="1" t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="F22">
+        <f ca="1" t="shared" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="G22">
+        <f ca="1" t="shared" si="5"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f ca="1" t="shared" ref="B23:B32" si="6">RANDBETWEEN(60,100)</f>
+        <v>60</v>
+      </c>
+      <c r="C23">
+        <f ca="1" t="shared" ref="C23:C32" si="7">RANDBETWEEN(60,100)</f>
+        <v>72</v>
+      </c>
+      <c r="D23">
+        <f ca="1" t="shared" ref="D23:D32" si="8">RANDBETWEEN(60,100)</f>
+        <v>89</v>
+      </c>
+      <c r="E23">
+        <f ca="1" t="shared" ref="E23:E32" si="9">RANDBETWEEN(60,100)</f>
+        <v>90</v>
+      </c>
+      <c r="F23">
+        <f ca="1" t="shared" ref="F23:F32" si="10">RANDBETWEEN(60,100)</f>
+        <v>86</v>
+      </c>
+      <c r="G23">
+        <f ca="1" t="shared" ref="G23:G32" si="11">RANDBETWEEN(60,100)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f ca="1" t="shared" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="C24">
+        <f ca="1" t="shared" si="7"/>
+        <v>86</v>
+      </c>
+      <c r="D24">
+        <f ca="1" t="shared" si="8"/>
+        <v>99</v>
+      </c>
+      <c r="E24">
+        <f ca="1" t="shared" si="9"/>
+        <v>91</v>
+      </c>
+      <c r="F24">
+        <f ca="1" t="shared" si="10"/>
+        <v>63</v>
+      </c>
+      <c r="G24">
+        <f ca="1" t="shared" si="11"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f ca="1" t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="C25">
+        <f ca="1" t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="D25">
+        <f ca="1" t="shared" si="8"/>
+        <v>88</v>
+      </c>
+      <c r="E25">
+        <f ca="1" t="shared" si="9"/>
+        <v>88</v>
+      </c>
+      <c r="F25">
+        <f ca="1" t="shared" si="10"/>
+        <v>61</v>
+      </c>
+      <c r="G25">
+        <f ca="1" t="shared" si="11"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f ca="1" t="shared" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="C26">
+        <f ca="1" t="shared" si="7"/>
+        <v>97</v>
+      </c>
+      <c r="D26">
+        <f ca="1" t="shared" si="8"/>
+        <v>66</v>
+      </c>
+      <c r="E26">
+        <f ca="1" t="shared" si="9"/>
+        <v>64</v>
+      </c>
+      <c r="F26">
+        <f ca="1" t="shared" si="10"/>
+        <v>67</v>
+      </c>
+      <c r="G26">
+        <f ca="1" t="shared" si="11"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f ca="1" t="shared" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="C27">
+        <f ca="1" t="shared" si="7"/>
+        <v>88</v>
+      </c>
+      <c r="D27">
+        <f ca="1" t="shared" si="8"/>
+        <v>87</v>
+      </c>
+      <c r="E27">
+        <f ca="1" t="shared" si="9"/>
+        <v>94</v>
+      </c>
+      <c r="F27">
+        <f ca="1" t="shared" si="10"/>
+        <v>88</v>
+      </c>
+      <c r="G27">
+        <f ca="1" t="shared" si="11"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f ca="1" t="shared" si="6"/>
+        <v>97</v>
+      </c>
+      <c r="C28">
+        <f ca="1" t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <f ca="1" t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="E28">
+        <f ca="1" t="shared" si="9"/>
+        <v>66</v>
+      </c>
+      <c r="F28">
+        <f ca="1" t="shared" si="10"/>
+        <v>63</v>
+      </c>
+      <c r="G28">
+        <f ca="1" t="shared" si="11"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f ca="1" t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="C29">
+        <f ca="1" t="shared" si="7"/>
+        <v>81</v>
+      </c>
+      <c r="D29">
+        <f ca="1" t="shared" si="8"/>
+        <v>77</v>
+      </c>
+      <c r="E29">
+        <f ca="1" t="shared" si="9"/>
+        <v>65</v>
+      </c>
+      <c r="F29">
+        <f ca="1" t="shared" si="10"/>
+        <v>84</v>
+      </c>
+      <c r="G29">
+        <f ca="1" t="shared" si="11"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f ca="1" t="shared" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="C30">
+        <f ca="1" t="shared" si="7"/>
+        <v>97</v>
+      </c>
+      <c r="D30">
+        <f ca="1" t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="E30">
+        <f ca="1" t="shared" si="9"/>
+        <v>82</v>
+      </c>
+      <c r="F30">
+        <f ca="1" t="shared" si="10"/>
+        <v>83</v>
+      </c>
+      <c r="G30">
+        <f ca="1" t="shared" si="11"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <f ca="1" t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="C31">
+        <f ca="1" t="shared" si="7"/>
+        <v>81</v>
+      </c>
+      <c r="D31">
+        <f ca="1" t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E31">
+        <f ca="1" t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="F31">
+        <f ca="1" t="shared" si="10"/>
+        <v>63</v>
+      </c>
+      <c r="G31">
+        <f ca="1" t="shared" si="11"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <f ca="1" t="shared" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="C32">
+        <f ca="1" t="shared" si="7"/>
+        <v>74</v>
+      </c>
+      <c r="D32">
+        <f ca="1" t="shared" si="8"/>
+        <v>96</v>
+      </c>
+      <c r="E32">
+        <f ca="1" t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="F32">
+        <f ca="1" t="shared" si="10"/>
+        <v>63</v>
+      </c>
+      <c r="G32">
+        <f ca="1" t="shared" si="11"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f ca="1" t="shared" ref="B33:B42" si="12">RANDBETWEEN(60,100)</f>
+        <v>81</v>
+      </c>
+      <c r="C33">
+        <f ca="1" t="shared" ref="C33:C42" si="13">RANDBETWEEN(60,100)</f>
+        <v>60</v>
+      </c>
+      <c r="D33">
+        <f ca="1" t="shared" ref="D33:D42" si="14">RANDBETWEEN(60,100)</f>
+        <v>81</v>
+      </c>
+      <c r="E33">
+        <f ca="1" t="shared" ref="E33:E42" si="15">RANDBETWEEN(60,100)</f>
+        <v>60</v>
+      </c>
+      <c r="F33">
+        <f ca="1" t="shared" ref="F33:F42" si="16">RANDBETWEEN(60,100)</f>
+        <v>100</v>
+      </c>
+      <c r="G33">
+        <f ca="1" t="shared" ref="G33:G42" si="17">RANDBETWEEN(60,100)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <f ca="1" t="shared" si="12"/>
+        <v>72</v>
+      </c>
+      <c r="C34">
+        <f ca="1" t="shared" si="13"/>
+        <v>83</v>
+      </c>
+      <c r="D34">
+        <f ca="1" t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="E34">
+        <f ca="1" t="shared" si="15"/>
+        <v>83</v>
+      </c>
+      <c r="F34">
+        <f ca="1" t="shared" si="16"/>
+        <v>80</v>
+      </c>
+      <c r="G34">
+        <f ca="1" t="shared" si="17"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <f ca="1" t="shared" si="12"/>
+        <v>85</v>
+      </c>
+      <c r="C35">
+        <f ca="1" t="shared" si="13"/>
+        <v>80</v>
+      </c>
+      <c r="D35">
+        <f ca="1" t="shared" si="14"/>
+        <v>96</v>
+      </c>
+      <c r="E35">
+        <f ca="1" t="shared" si="15"/>
+        <v>72</v>
+      </c>
+      <c r="F35">
+        <f ca="1" t="shared" si="16"/>
+        <v>63</v>
+      </c>
+      <c r="G35">
+        <f ca="1" t="shared" si="17"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <f ca="1" t="shared" si="12"/>
+        <v>69</v>
+      </c>
+      <c r="C36">
+        <f ca="1" t="shared" si="13"/>
+        <v>98</v>
+      </c>
+      <c r="D36">
+        <f ca="1" t="shared" si="14"/>
+        <v>78</v>
+      </c>
+      <c r="E36">
+        <f ca="1" t="shared" si="15"/>
+        <v>69</v>
+      </c>
+      <c r="F36">
+        <f ca="1" t="shared" si="16"/>
+        <v>95</v>
+      </c>
+      <c r="G36">
+        <f ca="1" t="shared" si="17"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <f ca="1" t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="C37">
+        <f ca="1" t="shared" si="13"/>
+        <v>70</v>
+      </c>
+      <c r="D37">
+        <f ca="1" t="shared" si="14"/>
+        <v>73</v>
+      </c>
+      <c r="E37">
+        <f ca="1" t="shared" si="15"/>
+        <v>98</v>
+      </c>
+      <c r="F37">
+        <f ca="1" t="shared" si="16"/>
+        <v>93</v>
+      </c>
+      <c r="G37">
+        <f ca="1" t="shared" si="17"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <f ca="1" t="shared" si="12"/>
+        <v>69</v>
+      </c>
+      <c r="C38">
+        <f ca="1" t="shared" si="13"/>
+        <v>87</v>
+      </c>
+      <c r="D38">
+        <f ca="1" t="shared" si="14"/>
+        <v>86</v>
+      </c>
+      <c r="E38">
+        <f ca="1" t="shared" si="15"/>
+        <v>82</v>
+      </c>
+      <c r="F38">
+        <f ca="1" t="shared" si="16"/>
+        <v>63</v>
+      </c>
+      <c r="G38">
+        <f ca="1" t="shared" si="17"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <f ca="1" t="shared" si="12"/>
+        <v>96</v>
+      </c>
+      <c r="C39">
+        <f ca="1" t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="D39">
+        <f ca="1" t="shared" si="14"/>
+        <v>97</v>
+      </c>
+      <c r="E39">
+        <f ca="1" t="shared" si="15"/>
+        <v>99</v>
+      </c>
+      <c r="F39">
+        <f ca="1" t="shared" si="16"/>
+        <v>87</v>
+      </c>
+      <c r="G39">
+        <f ca="1" t="shared" si="17"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <f ca="1" t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="C40">
+        <f ca="1" t="shared" si="13"/>
+        <v>75</v>
+      </c>
+      <c r="D40">
+        <f ca="1" t="shared" si="14"/>
+        <v>83</v>
+      </c>
+      <c r="E40">
+        <f ca="1" t="shared" si="15"/>
+        <v>78</v>
+      </c>
+      <c r="F40">
+        <f ca="1" t="shared" si="16"/>
+        <v>65</v>
+      </c>
+      <c r="G40">
+        <f ca="1" t="shared" si="17"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <f ca="1" t="shared" si="12"/>
+        <v>85</v>
+      </c>
+      <c r="C41">
+        <f ca="1" t="shared" si="13"/>
+        <v>79</v>
+      </c>
+      <c r="D41">
+        <f ca="1" t="shared" si="14"/>
+        <v>80</v>
+      </c>
+      <c r="E41">
+        <f ca="1" t="shared" si="15"/>
+        <v>83</v>
+      </c>
+      <c r="F41">
+        <f ca="1" t="shared" si="16"/>
+        <v>85</v>
+      </c>
+      <c r="G41">
+        <f ca="1" t="shared" si="17"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <f ca="1" t="shared" si="12"/>
+        <v>81</v>
+      </c>
+      <c r="C42">
+        <f ca="1" t="shared" si="13"/>
+        <v>97</v>
+      </c>
+      <c r="D42">
+        <f ca="1" t="shared" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="E42">
+        <f ca="1" t="shared" si="15"/>
+        <v>69</v>
+      </c>
+      <c r="F42">
+        <f ca="1" t="shared" si="16"/>
+        <v>65</v>
+      </c>
+      <c r="G42">
+        <f ca="1" t="shared" si="17"/>
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G11"/>
+    <ignoredError sqref="A1:G1 B2:G3 B4:G11" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>